--- a/public/assets/templates/PlantillaVim.xlsx
+++ b/public/assets/templates/PlantillaVim.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRO17\Desktop\Meliza Valle\1_CONSOLIDADO_MELIZA\0_Capacitaciones\1_ROTULADOS\D_MOVILIDAD PERSONAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Proyectos\Probusiness\intranet_back\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E8C27-82CC-47DC-A166-9FF0D83F0064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE486A-338C-4282-8B00-64062C7E90B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VINS 2025" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="D2zcY0stMjIaCqGItvFgxN0cN3paKHOePluxgPtv9l0="/>
     </ext>
@@ -159,6 +168,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,27 +180,32 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,6 +458,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,9 +486,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -489,8 +504,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +547,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7716116" y="-19050"/>
+          <a:off x="7698798" y="-19050"/>
           <a:ext cx="4962525" cy="38100"/>
           <a:chOff x="2864738" y="3780000"/>
           <a:chExt cx="4962525" cy="0"/>
@@ -869,31 +884,31 @@
   <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="49.19921875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="53.125" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="21" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="6.625" customWidth="1"/>
-    <col min="23" max="26" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="53.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" customWidth="1"/>
+    <col min="7" max="7" width="24.69921875" customWidth="1"/>
+    <col min="8" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="21" width="12.59765625" customWidth="1"/>
+    <col min="22" max="22" width="6.59765625" customWidth="1"/>
+    <col min="23" max="26" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -903,7 +918,7 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -912,17 +927,17 @@
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
       <c r="R2" s="9"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
@@ -934,8 +949,10 @@
       <c r="Z2" s="10"/>
       <c r="AA2" s="11"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="32">
+        <v>2</v>
+      </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
@@ -943,21 +960,21 @@
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="12"/>
       <c r="V3" s="13"/>
       <c r="AA3" s="13"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="32"/>
       <c r="C4" s="5">
         <v>2</v>
       </c>
@@ -965,21 +982,21 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="12"/>
       <c r="V4" s="13"/>
       <c r="AA4" s="13"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="32"/>
       <c r="C5" s="5">
         <v>3</v>
       </c>
@@ -987,21 +1004,21 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="12"/>
       <c r="V5" s="13"/>
       <c r="AA5" s="13"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="32"/>
       <c r="C6" s="5">
         <v>4</v>
       </c>
@@ -1009,21 +1026,21 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="12"/>
       <c r="V6" s="13"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="32"/>
       <c r="C7" s="5">
         <v>5</v>
       </c>
@@ -1031,21 +1048,21 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="12"/>
       <c r="V7" s="13"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="32"/>
       <c r="C8" s="5">
         <v>6</v>
       </c>
@@ -1053,21 +1070,21 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
       <c r="R8" s="12"/>
       <c r="V8" s="13"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="32"/>
       <c r="C9" s="5">
         <v>7</v>
       </c>
@@ -1075,21 +1092,21 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="12"/>
       <c r="V9" s="13"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="32"/>
       <c r="C10" s="5">
         <v>8</v>
       </c>
@@ -1097,21 +1114,21 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
       <c r="R10" s="12"/>
       <c r="V10" s="13"/>
       <c r="AA10" s="13"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="32"/>
       <c r="C11" s="5">
         <v>9</v>
       </c>
@@ -1119,21 +1136,21 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
       <c r="R11" s="12"/>
       <c r="V11" s="13"/>
       <c r="AA11" s="13"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="32"/>
       <c r="C12" s="5">
         <v>10</v>
       </c>
@@ -1141,21 +1158,21 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
       <c r="R12" s="12"/>
       <c r="V12" s="13"/>
       <c r="AA12" s="13"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="32"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -1163,21 +1180,21 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
       <c r="R13" s="12"/>
       <c r="V13" s="13"/>
       <c r="AA13" s="13"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25"/>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="32"/>
       <c r="C14" s="5">
         <v>12</v>
       </c>
@@ -1185,21 +1202,21 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
       <c r="R14" s="12"/>
       <c r="V14" s="13"/>
       <c r="AA14" s="13"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="32"/>
       <c r="C15" s="5">
         <v>13</v>
       </c>
@@ -1222,8 +1239,8 @@
       <c r="V15" s="13"/>
       <c r="AA15" s="13"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="32"/>
       <c r="C16" s="5">
         <v>14</v>
       </c>
@@ -1244,8 +1261,8 @@
       <c r="V16" s="13"/>
       <c r="AA16" s="13"/>
     </row>
-    <row r="17" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
+    <row r="17" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="32"/>
       <c r="C17" s="5">
         <v>15</v>
       </c>
@@ -1266,8 +1283,8 @@
       <c r="V17" s="13"/>
       <c r="AA17" s="13"/>
     </row>
-    <row r="18" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
+    <row r="18" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="32"/>
       <c r="C18" s="5">
         <v>16</v>
       </c>
@@ -1288,8 +1305,8 @@
       <c r="V18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
+    <row r="19" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="32"/>
       <c r="C19" s="5">
         <v>17</v>
       </c>
@@ -1310,8 +1327,8 @@
       <c r="V19" s="13"/>
       <c r="AA19" s="13"/>
     </row>
-    <row r="20" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
+    <row r="20" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="32"/>
       <c r="C20" s="5">
         <v>18</v>
       </c>
@@ -1332,7 +1349,7 @@
       <c r="V20" s="13"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F21" s="3"/>
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
@@ -1347,7 +1364,7 @@
       <c r="V21" s="13"/>
       <c r="AA21" s="13"/>
     </row>
-    <row r="22" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F22" s="3"/>
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
@@ -1362,7 +1379,7 @@
       <c r="V22" s="13"/>
       <c r="AA22" s="13"/>
     </row>
-    <row r="23" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="3"/>
       <c r="I23" s="28"/>
       <c r="J23" s="29"/>
@@ -1377,7 +1394,7 @@
       <c r="V23" s="13"/>
       <c r="AA23" s="13"/>
     </row>
-    <row r="24" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F24" s="3"/>
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
@@ -1392,7 +1409,7 @@
       <c r="V24" s="13"/>
       <c r="AA24" s="13"/>
     </row>
-    <row r="25" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="3"/>
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
@@ -1403,22 +1420,22 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
-      <c r="R25" s="14" t="s">
+      <c r="R25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="14" t="s">
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="16"/>
-    </row>
-    <row r="26" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="17"/>
+    </row>
+    <row r="26" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="3"/>
       <c r="I26" s="30"/>
       <c r="J26" s="31"/>
@@ -1429,163 +1446,162 @@
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="19"/>
-    </row>
-    <row r="27" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="18"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="20"/>
+    </row>
+    <row r="27" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="W25:AA26"/>
     <mergeCell ref="I2:Q14"/>
-    <mergeCell ref="B3:B20"/>
     <mergeCell ref="I15:Q26"/>
     <mergeCell ref="R25:V26"/>
   </mergeCells>
